--- a/2019 - 1/2019 - 1.xlsx
+++ b/2019 - 1/2019 - 1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MartManHunter\Google Drive\Grad\2019 - 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63349A0-434F-4040-AB00-856A96D3CEB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2335AA3-1CCD-4DBE-B616-C28C23DE9CC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="me 2019 fodasi" sheetId="6" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="5" r:id="rId2"/>
+    <sheet name="2019-2" sheetId="7" r:id="rId1"/>
+    <sheet name="me 2019 fodasi" sheetId="6" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -22,12 +23,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="56">
   <si>
     <t>Segunda</t>
   </si>
@@ -167,52 +173,52 @@
     <t>s7 3 trilhas</t>
   </si>
   <si>
-    <t>CDI</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
     <t>AlgED2</t>
   </si>
   <si>
     <t>POOAV</t>
   </si>
   <si>
-    <t xml:space="preserve"> GA</t>
-  </si>
-  <si>
-    <t>at pooav</t>
-  </si>
-  <si>
-    <t>Dar Palestra</t>
-  </si>
-  <si>
     <t>bleh</t>
   </si>
   <si>
-    <t>CDI - casa</t>
-  </si>
-  <si>
-    <t>PLP - casa</t>
-  </si>
-  <si>
-    <t>IA - casa</t>
-  </si>
-  <si>
-    <t>GA - casa</t>
-  </si>
-  <si>
-    <t>AlgED2 - casa</t>
-  </si>
-  <si>
-    <t>POOAV - casa</t>
-  </si>
-  <si>
     <t>MKT</t>
   </si>
   <si>
-    <t>ver Palestra</t>
+    <t>prepararP</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>ARQ1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ARQ1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <t>bdcd</t>
+  </si>
+  <si>
+    <t>LFA</t>
   </si>
 </sst>
 </file>
@@ -222,7 +228,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,8 +277,23 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,12 +315,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,8 +360,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -369,51 +396,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -422,34 +427,75 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,11 +777,791 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8854685-DC0C-410C-B4D5-CB9FC398F21D}">
+  <dimension ref="A1:M49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" activeCellId="1" sqref="C8:C9 F8:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16" style="2" customWidth="1"/>
+    <col min="9" max="9" width="2.77734375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="33"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="34"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="34"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="34"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="34"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+    </row>
+    <row r="33" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+    </row>
+    <row r="34" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+    </row>
+    <row r="35" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+    </row>
+    <row r="36" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+    </row>
+    <row r="37" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+    </row>
+    <row r="38" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+    </row>
+    <row r="39" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+    </row>
+    <row r="40" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+    </row>
+    <row r="41" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+    </row>
+    <row r="42" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+    </row>
+    <row r="43" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+    </row>
+    <row r="44" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+    </row>
+    <row r="45" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+    </row>
+    <row r="46" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+    </row>
+    <row r="47" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+    </row>
+    <row r="48" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+    </row>
+    <row r="49" spans="4:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28485DF5-58BF-4761-9C6B-6CD841327839}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -779,86 +1605,96 @@
       <c r="A2" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="21" t="s">
+      <c r="C3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>58</v>
+      <c r="H3" s="24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>54</v>
+      <c r="D4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="18" t="s">
-        <v>58</v>
+      <c r="D5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -866,238 +1702,235 @@
         <v>0.5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>0.54166666666666663</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="19" t="s">
+      <c r="E13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G13" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9" t="s">
+    </row>
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>0.75</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>0.875</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="10"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="10">
         <v>0.91666666666666663</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="10"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17"/>
@@ -1129,9 +1962,11 @@
       <c r="L18"/>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19"/>
-      <c r="B19"/>
+      <c r="B19" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1146,7 +1981,9 @@
     </row>
     <row r="20" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20"/>
-      <c r="B20"/>
+      <c r="B20" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1159,9 +1996,11 @@
       <c r="L20"/>
       <c r="M20"/>
     </row>
-    <row r="21" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21"/>
-      <c r="B21"/>
+      <c r="B21" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -1176,7 +2015,9 @@
     </row>
     <row r="22" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22"/>
-      <c r="B22"/>
+      <c r="B22" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -1192,7 +2033,7 @@
     <row r="23" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
-      <c r="C23"/>
+      <c r="C23" s="20"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -1579,10 +2420,7 @@
       <c r="L48"/>
       <c r="M48"/>
     </row>
-    <row r="49" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
+    <row r="49" spans="4:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
@@ -1600,7 +2438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61B750E-5AC5-4F77-B00D-564CEBA6E4BD}">
   <dimension ref="A1:I31"/>
   <sheetViews>
